--- a/服务器列表.xlsx
+++ b/服务器列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服务器列表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.1.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>安装目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>配置文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>servicecenter.hj.dev.hzbd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/usr/local/nginx</t>
   </si>
   <si>
@@ -121,6 +109,53 @@
   </si>
   <si>
     <t>sc03.hj.dev.hzbd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HJ-ServiceCenter</t>
+  </si>
+  <si>
+    <t>存放目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/release/app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sc02.hj.dev.hzbd:8761/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sc03.hj.dev.hzbd:8761/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sc01.hj.dev.hzbd:8761/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HJ-ConfigCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决策中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HJ-Decision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则引擎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +178,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,18 +204,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -479,7 +538,7 @@
     <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -504,12 +563,12 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -518,97 +577,21 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>47</v>
-      </c>
-      <c r="B7">
-        <f>D7*A7</f>
-        <v>14.1</v>
-      </c>
-      <c r="C7">
-        <f>A7*E7</f>
-        <v>18.8</v>
-      </c>
-      <c r="D7">
-        <v>0.3</v>
-      </c>
-      <c r="E7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>65</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ref="B8:B10" si="0">D8*A8</f>
-        <v>19.5</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ref="C8:C10" si="1">A8*E8</f>
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>0.3</v>
-      </c>
-      <c r="E8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>85</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>25.5</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>0.3</v>
-      </c>
-      <c r="E9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>90</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>0.3</v>
-      </c>
-      <c r="E10">
-        <v>0.4</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -620,84 +603,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="E2">
         <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>16</v>
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8761</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/服务器列表.xlsx
+++ b/服务器列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,29 @@
   </si>
   <si>
     <t>规则引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dockerhub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴权中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HJ-Authentication</t>
+  </si>
+  <si>
+    <t>192.168.1.130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +550,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -603,10 +626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -751,6 +774,31 @@
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/服务器列表.xlsx
+++ b/服务器列表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="服务器列表" sheetId="1" r:id="rId1"/>
     <sheet name="服务列表" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="mark" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>IP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,69 @@
   <si>
     <t>192.168.1.130</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastjson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring-test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同环境的通用初始配置（eureka的地址)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HJ-Security</t>
+  </si>
+  <si>
+    <t>HJ-Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一的鉴权ServletFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commons-codec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HJ-MS-Common</t>
+  </si>
+  <si>
+    <t>HJ-ServiceInterface</t>
+  </si>
+  <si>
+    <t>Feign的统一配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starter-feign</t>
+  </si>
+  <si>
+    <t>独立项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HJ-ConfigCenter</t>
   </si>
 </sst>
 </file>
@@ -628,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -824,12 +887,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
